--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>问题与后续计划</t>
+  </si>
+  <si>
+    <t>第八周</t>
   </si>
 </sst>
 </file>
@@ -976,13 +979,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1008,6 +1011,11 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
+    <row r="2" ht="22" customHeight="1" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -32,6 +32,75 @@
   </si>
   <si>
     <t>第八周</t>
+  </si>
+  <si>
+    <t>学习html基础知识</t>
+  </si>
+  <si>
+    <t>学完html基础标签知识</t>
+  </si>
+  <si>
+    <t>学完能否做出基础网页，并进行深层次开发</t>
+  </si>
+  <si>
+    <t>第九周</t>
+  </si>
+  <si>
+    <t>学习html扩展知识</t>
+  </si>
+  <si>
+    <t>学完html扩展知识</t>
+  </si>
+  <si>
+    <t>能够做出基础网页，够系统使用</t>
+  </si>
+  <si>
+    <t>学习css知识，并了解老师例项中的代码</t>
+  </si>
+  <si>
+    <t>学习完css基础知识，看了部分老师给出的例码</t>
+  </si>
+  <si>
+    <t>准备学习js</t>
+  </si>
+  <si>
+    <t>继续看老师给出的项目例码和学习css</t>
+  </si>
+  <si>
+    <t>能够运用基础css知识做东西</t>
+  </si>
+  <si>
+    <t>例码理解有难度</t>
+  </si>
+  <si>
+    <t>学习js</t>
+  </si>
+  <si>
+    <t>理解js基础知识</t>
+  </si>
+  <si>
+    <t>继续学习js知识</t>
+  </si>
+  <si>
+    <t>能过运用js中的函数</t>
+  </si>
+  <si>
+    <t>着手写一些所做系统的页面代码</t>
+  </si>
+  <si>
+    <t>学习sql并建立与数据库的连接</t>
+  </si>
+  <si>
+    <t>连上数据库</t>
+  </si>
+  <si>
+    <t>了解数据库连接的机制</t>
+  </si>
+  <si>
+    <t>看老师给出的例码</t>
+  </si>
+  <si>
+    <t>了解注解</t>
   </si>
 </sst>
 </file>
@@ -40,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,81 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,15 +138,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,17 +174,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +203,68 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,56 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +511,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -497,6 +536,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,137 +586,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,8 +726,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -979,13 +1054,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -999,28 +1074,235 @@
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:1">
+    <row r="2" ht="60" customHeight="1" spans="1:12">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3">
+        <v>43219</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" ht="58" customHeight="1" spans="1:12">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43220</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="42" customHeight="1" spans="1:12">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43221</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="41" customHeight="1" spans="1:12">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43222</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" ht="52" customHeight="1" spans="1:12">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43223</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" ht="51" customHeight="1" spans="1:12">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43224</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" ht="46" customHeight="1" spans="1:12">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43225</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" ht="51" customHeight="1" spans="1:12">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43226</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="27">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>了解注解</t>
+  </si>
+  <si>
+    <t>第十周</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,14 +163,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,6 +208,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -204,8 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,25 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,14 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,37 +278,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,139 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,26 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,32 +500,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -552,17 +520,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,137 +589,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,9 +731,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1093,22 +1093,22 @@
       <c r="B2" s="3">
         <v>43219</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" ht="58" customHeight="1" spans="1:12">
       <c r="A3" t="s">
@@ -1117,22 +1117,22 @@
       <c r="B3" s="3">
         <v>43220</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:12">
       <c r="A4" t="s">
@@ -1141,22 +1141,22 @@
       <c r="B4" s="3">
         <v>43221</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:12">
       <c r="A5" t="s">
@@ -1165,22 +1165,22 @@
       <c r="B5" s="3">
         <v>43222</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" ht="52" customHeight="1" spans="1:12">
       <c r="A6" t="s">
@@ -1189,20 +1189,20 @@
       <c r="B6" s="3">
         <v>43223</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:12">
       <c r="A7" t="s">
@@ -1211,22 +1211,22 @@
       <c r="B7" s="3">
         <v>43224</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" ht="46" customHeight="1" spans="1:12">
       <c r="A8" t="s">
@@ -1235,22 +1235,22 @@
       <c r="B8" s="3">
         <v>43225</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" ht="51" customHeight="1" spans="1:12">
       <c r="A9" t="s">
@@ -1259,20 +1259,25 @@
       <c r="B9" s="3">
         <v>43226</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" ht="42" customHeight="1" spans="1:1">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27735" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>第十周</t>
+  </si>
+  <si>
+    <t>学习xml</t>
+  </si>
+  <si>
+    <t>学会xml的基本规则编写</t>
+  </si>
+  <si>
+    <t>怎么自定义一个xml规则</t>
+  </si>
+  <si>
+    <t>观看学习例码</t>
+  </si>
+  <si>
+    <t>了解了dao模块里的实体类</t>
+  </si>
+  <si>
+    <t>尝试写出自己的实体类</t>
   </si>
 </sst>
 </file>
@@ -112,8 +130,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -126,12 +144,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -139,9 +212,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,113 +286,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -278,13 +296,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,19 +398,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,145 +428,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,9 +492,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,26 +525,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,17 +553,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -556,16 +574,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,149 +595,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,6 +752,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1054,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1274,13 +1295,57 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:1">
+    <row r="10" ht="42" customHeight="1" spans="1:12">
       <c r="A10" t="s">
         <v>29</v>
       </c>
+      <c r="B10" s="3">
+        <v>43227</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
+    <row r="11" ht="51" customHeight="1" spans="1:12">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43228</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" ht="49" customHeight="1"/>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1308,6 +1373,12 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>尝试写出自己的实体类</t>
+  </si>
+  <si>
+    <t>写出所负责模块的表的创建</t>
   </si>
 </sst>
 </file>
@@ -129,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -143,29 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -174,6 +154,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -182,75 +229,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,14 +261,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -281,7 +269,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,103 +299,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,79 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,16 +535,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,8 +552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,17 +567,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,121 +598,121 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,22 +721,22 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1302,22 +1305,22 @@
       <c r="B10" s="3">
         <v>43227</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="1:12">
       <c r="A11" t="s">
@@ -1326,26 +1329,70 @@
       <c r="B11" s="3">
         <v>43228</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" ht="49" customHeight="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" ht="49" customHeight="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="13" ht="51" customHeight="1" spans="1:2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="14" ht="44" customHeight="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43231</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43232</v>
+      </c>
+    </row>
+    <row r="16" ht="51" customHeight="1" spans="1:5">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43233</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1379,6 +1426,7 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="10290"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t>尝试写出自己的实体类</t>
+  </si>
+  <si>
+    <t>学习mysql</t>
+  </si>
+  <si>
+    <t>知道MySQL中的基本语句</t>
+  </si>
+  <si>
+    <t>继续深入学习MySQL语句</t>
+  </si>
+  <si>
+    <t>学习jdbc</t>
+  </si>
+  <si>
+    <t>了解jdbc的机制原理</t>
+  </si>
+  <si>
+    <t>学习使用jdbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习Junit </t>
   </si>
   <si>
     <t>写出所负责模块的表的创建</t>
@@ -132,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,6 +164,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,8 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,85 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +212,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -269,7 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,14 +306,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,30 +320,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,151 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,47 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,25 +533,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +582,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1102,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C14" sqref="C14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1346,53 +1367,114 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" ht="49" customHeight="1" spans="1:2">
+    <row r="12" ht="49" customHeight="1" spans="1:12">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="3">
         <v>43229</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
-    <row r="13" ht="51" customHeight="1" spans="1:2">
+    <row r="13" ht="51" customHeight="1" spans="1:12">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="3">
         <v>43230</v>
       </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
-    <row r="14" ht="44" customHeight="1" spans="1:2">
+    <row r="14" ht="44" customHeight="1" spans="1:12">
       <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>43231</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
-    <row r="15" ht="39" customHeight="1" spans="1:2">
+    <row r="15" ht="39" customHeight="1" spans="1:12">
       <c r="A15" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3">
         <v>43232</v>
       </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
-    <row r="16" ht="51" customHeight="1" spans="1:5">
+    <row r="16" ht="54" customHeight="1" spans="1:12">
       <c r="A16" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>43233</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="48">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1426,7 +1508,21 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t xml:space="preserve"> 周次</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">学习Junit </t>
+  </si>
+  <si>
+    <t>能够运用其进行单元测试</t>
   </si>
   <si>
     <t>写出所负责模块的表的创建</t>
@@ -167,10 +170,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,121 +262,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,25 +323,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,31 +479,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,121 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +514,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,7 +571,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,56 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -619,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,19 +634,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,116 +655,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1101,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1374,22 +1374,22 @@
       <c r="B12" s="3">
         <v>43229</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" ht="51" customHeight="1" spans="1:12">
       <c r="A13" t="s">
@@ -1398,22 +1398,22 @@
       <c r="B13" s="3">
         <v>43230</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" ht="44" customHeight="1" spans="1:12">
       <c r="A14" t="s">
@@ -1422,18 +1422,20 @@
       <c r="B14" s="3">
         <v>43231</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:12">
       <c r="A15" t="s">
@@ -1442,16 +1444,16 @@
       <c r="B15" s="3">
         <v>43232</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" ht="54" customHeight="1" spans="1:12">
       <c r="A16" t="s">
@@ -1461,17 +1463,17 @@
         <v>43233</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="48">

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -7,21 +7,22 @@
     <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日报" sheetId="1" r:id="rId1"/>
+    <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
-  <si>
-    <t xml:space="preserve"> 周次</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
   <si>
+    <t xml:space="preserve"> 时间</t>
+  </si>
+  <si>
     <t>原定计划</t>
   </si>
   <si>
@@ -31,7 +32,7 @@
     <t>问题与后续计划</t>
   </si>
   <si>
-    <t>第八周</t>
+    <t>19：00-21：00</t>
   </si>
   <si>
     <t>学习html基础知识</t>
@@ -43,9 +44,6 @@
     <t>学完能否做出基础网页，并进行深层次开发</t>
   </si>
   <si>
-    <t>第九周</t>
-  </si>
-  <si>
     <t>学习html扩展知识</t>
   </si>
   <si>
@@ -64,6 +62,9 @@
     <t>准备学习js</t>
   </si>
   <si>
+    <t>16：00-18:00</t>
+  </si>
+  <si>
     <t>继续看老师给出的项目例码和学习css</t>
   </si>
   <si>
@@ -97,15 +98,15 @@
     <t>了解数据库连接的机制</t>
   </si>
   <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
     <t>看老师给出的例码</t>
   </si>
   <si>
     <t>了解注解</t>
   </si>
   <si>
-    <t>第十周</t>
-  </si>
-  <si>
     <t>学习xml</t>
   </si>
   <si>
@@ -124,6 +125,9 @@
     <t>尝试写出自己的实体类</t>
   </si>
   <si>
+    <t>18:00-21:00</t>
+  </si>
+  <si>
     <t>学习mysql</t>
   </si>
   <si>
@@ -148,7 +152,31 @@
     <t>能够运用其进行单元测试</t>
   </si>
   <si>
+    <t>14:00-18:00</t>
+  </si>
+  <si>
+    <t>学习tomcat服务器</t>
+  </si>
+  <si>
+    <t>了解服务器的机制和使用</t>
+  </si>
+  <si>
     <t>写出所负责模块的表的创建</t>
+  </si>
+  <si>
+    <t>可以自动生成表</t>
+  </si>
+  <si>
+    <t>后续解决数据插入</t>
+  </si>
+  <si>
+    <t>学习servlet</t>
+  </si>
+  <si>
+    <t>了解servlet机制</t>
+  </si>
+  <si>
+    <t>深入了解servlet</t>
   </si>
 </sst>
 </file>
@@ -158,8 +186,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,6 +195,142 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,142 +341,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,181 +351,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,80 +542,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,8 +563,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,137 +662,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,11 +802,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1099,13 +1133,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -1132,11 +1170,11 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:12">
-      <c r="A2" t="s">
+      <c r="A2" s="3">
+        <v>43219</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="3">
-        <v>43219</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1156,65 +1194,65 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" ht="58" customHeight="1" spans="1:12">
-      <c r="A3" t="s">
+      <c r="A3" s="3">
+        <v>43221</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3">
-        <v>43220</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:12">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="3">
         <v>43221</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:12">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="3">
         <v>43222</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1228,11 +1266,11 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" ht="52" customHeight="1" spans="1:12">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3">
         <v>43223</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
@@ -1250,11 +1288,11 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:12">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="3">
         <v>43224</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
@@ -1274,22 +1312,22 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" ht="46" customHeight="1" spans="1:12">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="3">
         <v>43225</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1298,33 +1336,33 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" ht="51" customHeight="1" spans="1:12">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="A9" s="3">
         <v>43226</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:12">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="3">
         <v>43227</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -1344,11 +1382,11 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="1:12">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="A11" s="3">
         <v>43228</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
@@ -1368,67 +1406,67 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" ht="49" customHeight="1" spans="1:12">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="3">
         <v>43229</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" ht="51" customHeight="1" spans="1:12">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="3">
         <v>43230</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" ht="44" customHeight="1" spans="1:12">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14" ht="55" customHeight="1" spans="1:12">
+      <c r="A14" s="3">
         <v>43231</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1437,17 +1475,21 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" ht="39" customHeight="1" spans="1:12">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" ht="60" customHeight="1" spans="1:12">
+      <c r="A15" s="3">
         <v>43232</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1456,27 +1498,73 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" ht="54" customHeight="1" spans="1:12">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="3">
         <v>43233</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
+    <row r="17" ht="63" customHeight="1" spans="1:12">
+      <c r="A17" s="3">
+        <v>43234</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" ht="54" customHeight="1" spans="1:12">
+      <c r="A18" s="3">
+        <v>43235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="54">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1525,8 +1613,30 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -152,6 +152,9 @@
     <t>能够运用其进行单元测试</t>
   </si>
   <si>
+    <t>学习服务器</t>
+  </si>
+  <si>
     <t>14:00-18:00</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t>了解服务器的机制和使用</t>
   </si>
   <si>
+    <t>对数据库进行连接并建出表</t>
+  </si>
+  <si>
     <t>写出所负责模块的表的创建</t>
   </si>
   <si>
@@ -177,6 +183,45 @@
   </si>
   <si>
     <t>深入了解servlet</t>
+  </si>
+  <si>
+    <t>复习Java接口及泛型的使用</t>
+  </si>
+  <si>
+    <t>明白项目中的泛型和接口的具体使用和实现</t>
+  </si>
+  <si>
+    <t>后续学习项目框架</t>
+  </si>
+  <si>
+    <t>学习JPA相关知识</t>
+  </si>
+  <si>
+    <t>了解JPA</t>
+  </si>
+  <si>
+    <t>后续进行项目表中的数据插入</t>
+  </si>
+  <si>
+    <t>对项目所建的表进行模拟数据插入</t>
+  </si>
+  <si>
+    <t>数据插入成功</t>
+  </si>
+  <si>
+    <t>尝试进行数据的其他操作</t>
+  </si>
+  <si>
+    <t>16：00-18:30</t>
+  </si>
+  <si>
+    <t>解决一些后续问题并删除表中无用列（GROUP_ID）</t>
+  </si>
+  <si>
+    <t>问题成功解决</t>
+  </si>
+  <si>
+    <t>尝试进行数据的增删改查</t>
   </si>
 </sst>
 </file>
@@ -184,9 +229,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -199,6 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,7 +258,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,22 +356,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -245,52 +365,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,44 +386,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,187 +396,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,48 +587,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,6 +620,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -634,6 +646,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -650,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,157 +707,163 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,438 +1184,534 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:12">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>43219</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" ht="58" customHeight="1" spans="1:12">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:12">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>43221</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:12">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>43222</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" ht="52" customHeight="1" spans="1:12">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>43223</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:12">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>43224</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" ht="46" customHeight="1" spans="1:12">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>43225</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" ht="51" customHeight="1" spans="1:12">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>43226</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:12">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>43227</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="1:12">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>43228</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" ht="49" customHeight="1" spans="1:12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>43229</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" ht="51" customHeight="1" spans="1:12">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>43230</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" ht="55" customHeight="1" spans="1:12">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>43231</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" ht="60" customHeight="1" spans="1:12">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>43232</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
     <row r="16" ht="54" customHeight="1" spans="1:12">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>43233</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:12">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>43234</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:12">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>43235</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="I18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" ht="59" customHeight="1" spans="1:12">
+      <c r="A19" s="4">
+        <v>43236</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" ht="45" customHeight="1" spans="1:12">
+      <c r="A20" s="4">
+        <v>43237</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" ht="56" customHeight="1" spans="1:12">
+      <c r="A21" s="4">
+        <v>43238</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" ht="60" customHeight="1" spans="3:12">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="66">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1619,6 +1766,18 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:L22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -222,6 +222,27 @@
   </si>
   <si>
     <t>尝试进行数据的增删改查</t>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+  </si>
+  <si>
+    <t>学习servlet的生命周期</t>
+  </si>
+  <si>
+    <t>了解servlet的生命周期</t>
+  </si>
+  <si>
+    <t>学习模板方法和servlet映射</t>
+  </si>
+  <si>
+    <t>进一步完善项目模块</t>
+  </si>
+  <si>
+    <t>对项目模块进行详细查看和修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习servlet映射 </t>
   </si>
 </sst>
 </file>
@@ -229,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -244,13 +265,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -258,7 +272,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,18 +294,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,31 +332,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +350,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,34 +400,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -396,7 +417,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,13 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,37 +531,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,48 +591,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -535,48 +598,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,32 +611,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +646,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -667,26 +708,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,10 +716,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,137 +728,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,23 +868,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1184,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1202,516 +1217,1548 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:12">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43219</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" ht="58" customHeight="1" spans="1:12">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43221</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:12">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43221</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:12">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43222</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" ht="52" customHeight="1" spans="1:12">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43223</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:12">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43224</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" ht="46" customHeight="1" spans="1:12">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43225</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" ht="51" customHeight="1" spans="1:12">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>43226</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" ht="42" customHeight="1" spans="1:12">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43227</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="1:12">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>43228</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" ht="49" customHeight="1" spans="1:12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43229</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" ht="51" customHeight="1" spans="1:12">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>43230</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" ht="55" customHeight="1" spans="1:12">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43231</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" ht="60" customHeight="1" spans="1:12">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>43232</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" ht="54" customHeight="1" spans="1:12">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43233</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:12">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>43234</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" ht="54" customHeight="1" spans="1:12">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43235</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" ht="59" customHeight="1" spans="1:12">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>43236</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" ht="45" customHeight="1" spans="1:12">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>43237</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" ht="56" customHeight="1" spans="1:12">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>43238</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" ht="60" customHeight="1" spans="3:12">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" ht="60" customHeight="1" spans="1:12">
+      <c r="A22" s="3">
+        <v>43239</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" ht="66" customHeight="1" spans="1:12">
+      <c r="A23" s="3">
+        <v>43240</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" ht="56" customHeight="1" spans="3:12">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" ht="56" customHeight="1" spans="3:12">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" ht="56" customHeight="1" spans="3:12">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" ht="56" customHeight="1" spans="3:12">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" ht="56" customHeight="1" spans="3:12">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" ht="56" customHeight="1" spans="3:12">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" ht="56" customHeight="1" spans="3:12">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" ht="56" customHeight="1" spans="3:12">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" ht="56" customHeight="1" spans="3:12">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" ht="56" customHeight="1" spans="3:12">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" ht="56" customHeight="1" spans="3:12">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" ht="56" customHeight="1" spans="3:12">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" ht="56" customHeight="1" spans="3:12">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" ht="56" customHeight="1" spans="3:12">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" ht="56" customHeight="1" spans="3:12">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" ht="56" customHeight="1" spans="3:12">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" ht="56" customHeight="1" spans="3:12">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" ht="56" customHeight="1" spans="3:12">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" ht="56" customHeight="1" spans="3:12">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" ht="56" customHeight="1" spans="3:12">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" ht="56" customHeight="1" spans="3:12">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" ht="56" customHeight="1" spans="3:12">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" ht="56" customHeight="1" spans="3:12">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" ht="56" customHeight="1" spans="3:12">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" ht="56" customHeight="1" spans="3:12">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" ht="56" customHeight="1" spans="3:12">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" ht="56" customHeight="1" spans="3:12">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" ht="56" customHeight="1" spans="3:12">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" ht="56" customHeight="1" spans="3:12">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" ht="56" customHeight="1" spans="3:12">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" ht="56" customHeight="1" spans="3:12">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" ht="56" customHeight="1" spans="3:12">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" ht="56" customHeight="1" spans="3:12">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" ht="56" customHeight="1" spans="3:12">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" ht="56" customHeight="1" spans="3:12">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" ht="56" customHeight="1" spans="3:12">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" ht="56" customHeight="1" spans="3:12">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" ht="56" customHeight="1" spans="3:12">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" ht="56" customHeight="1" spans="3:12">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" ht="56" customHeight="1" spans="3:12">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" ht="56" customHeight="1" spans="3:12">
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" ht="56" customHeight="1" spans="3:12">
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" ht="56" customHeight="1" spans="3:12">
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" ht="56" customHeight="1" spans="3:12">
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" ht="56" customHeight="1" spans="3:12">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" ht="56" customHeight="1" spans="3:12">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" ht="56" customHeight="1" spans="3:12">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" ht="56" customHeight="1" spans="3:12">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" ht="56" customHeight="1" spans="3:12">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" ht="56" customHeight="1" spans="3:12">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" ht="56" customHeight="1" spans="3:12">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" ht="56" customHeight="1" spans="3:12">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" ht="56" customHeight="1" spans="3:12">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" ht="56" customHeight="1" spans="3:12">
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" ht="56" customHeight="1" spans="3:12">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" ht="56" customHeight="1" spans="3:12">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" ht="56" customHeight="1" spans="3:12">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" ht="56" customHeight="1" spans="3:12">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" ht="56" customHeight="1" spans="3:12">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" ht="56" customHeight="1" spans="3:12">
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" ht="56" customHeight="1" spans="3:12">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" ht="56" customHeight="1" spans="3:12">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" ht="56" customHeight="1" spans="3:12">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" ht="56" customHeight="1" spans="3:12">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" ht="56" customHeight="1" spans="3:12">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" ht="56" customHeight="1" spans="3:12">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" ht="56" customHeight="1" spans="3:12">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" ht="56" customHeight="1" spans="3:12">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" ht="56" customHeight="1" spans="3:12">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" ht="56" customHeight="1" spans="3:12">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" ht="56" customHeight="1" spans="3:12">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" ht="56" customHeight="1" spans="3:12">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" ht="56" customHeight="1" spans="3:12">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" ht="56" customHeight="1" spans="3:12">
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" ht="56" customHeight="1" spans="3:12">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+    </row>
+    <row r="99" ht="56" customHeight="1" spans="3:12">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+    </row>
+    <row r="100" ht="56" customHeight="1" spans="3:12">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+    </row>
+    <row r="101" ht="56" customHeight="1" spans="3:12">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+    </row>
+    <row r="102" ht="56" customHeight="1" spans="3:12">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+    </row>
+    <row r="103" ht="56" customHeight="1" spans="3:12">
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+    </row>
+    <row r="104" ht="56" customHeight="1" spans="3:12">
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+    </row>
+    <row r="105" ht="56" customHeight="1" spans="3:12">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+    </row>
+    <row r="106" ht="56" customHeight="1" spans="3:12">
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="318">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:L1"/>
@@ -1778,6 +2825,258 @@
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:L22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="I106:L106"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -243,6 +243,36 @@
   </si>
   <si>
     <t xml:space="preserve">学习servlet映射 </t>
+  </si>
+  <si>
+    <t>学习servlet的映射</t>
+  </si>
+  <si>
+    <t>了解servlet映射机制</t>
+  </si>
+  <si>
+    <t>继续学习servlet</t>
+  </si>
+  <si>
+    <t>学习servlet的相关对象</t>
+  </si>
+  <si>
+    <t>学会使用servlet相关对象</t>
+  </si>
+  <si>
+    <t>学习hibernate</t>
+  </si>
+  <si>
+    <t>18:00-20:30</t>
+  </si>
+  <si>
+    <t>学习hibernate入门和其配置文件</t>
+  </si>
+  <si>
+    <t>了解hibernate机制并学会配置其简单配置文件</t>
+  </si>
+  <si>
+    <t>继续学习hibernate</t>
   </si>
 </sst>
 </file>
@@ -251,14 +281,45 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,7 +333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,66 +349,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -371,7 +378,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,14 +431,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -417,7 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,13 +507,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,67 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,73 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,13 +641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,17 +665,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,25 +701,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,6 +729,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -716,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,137 +758,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,9 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1202,7 +1229,7 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C27" sqref="C27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1744,1018 +1771,1054 @@
       <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" ht="56" customHeight="1" spans="3:12">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" ht="56" customHeight="1" spans="3:12">
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" ht="56" customHeight="1" spans="3:12">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" ht="56" customHeight="1" spans="1:12">
+      <c r="A24" s="3">
+        <v>43241</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" ht="56" customHeight="1" spans="1:12">
+      <c r="A25" s="3">
+        <v>43242</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" ht="56" customHeight="1" spans="1:12">
+      <c r="A26" s="3">
+        <v>43243</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" ht="56" customHeight="1" spans="3:12">
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" ht="56" customHeight="1" spans="3:12">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" ht="56" customHeight="1" spans="3:12">
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" ht="56" customHeight="1" spans="3:12">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
     </row>
     <row r="31" ht="56" customHeight="1" spans="3:12">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" ht="56" customHeight="1" spans="3:12">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
     </row>
     <row r="33" ht="56" customHeight="1" spans="3:12">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
     </row>
     <row r="34" ht="56" customHeight="1" spans="3:12">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
     </row>
     <row r="35" ht="56" customHeight="1" spans="3:12">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
     </row>
     <row r="36" ht="56" customHeight="1" spans="3:12">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
     </row>
     <row r="37" ht="56" customHeight="1" spans="3:12">
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" ht="56" customHeight="1" spans="3:12">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" ht="56" customHeight="1" spans="3:12">
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
     </row>
     <row r="40" ht="56" customHeight="1" spans="3:12">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
     </row>
     <row r="41" ht="56" customHeight="1" spans="3:12">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
     </row>
     <row r="42" ht="56" customHeight="1" spans="3:12">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
     </row>
     <row r="43" ht="56" customHeight="1" spans="3:12">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" ht="56" customHeight="1" spans="3:12">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
     </row>
     <row r="45" ht="56" customHeight="1" spans="3:12">
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
     </row>
     <row r="46" ht="56" customHeight="1" spans="3:12">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
     </row>
     <row r="47" ht="56" customHeight="1" spans="3:12">
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
     </row>
     <row r="48" ht="56" customHeight="1" spans="3:12">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
     </row>
     <row r="49" ht="56" customHeight="1" spans="3:12">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
     </row>
     <row r="50" ht="56" customHeight="1" spans="3:12">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
     </row>
     <row r="51" ht="56" customHeight="1" spans="3:12">
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
     </row>
     <row r="52" ht="56" customHeight="1" spans="3:12">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
     </row>
     <row r="53" ht="56" customHeight="1" spans="3:12">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
     </row>
     <row r="54" ht="56" customHeight="1" spans="3:12">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
     </row>
     <row r="55" ht="56" customHeight="1" spans="3:12">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
     </row>
     <row r="56" ht="56" customHeight="1" spans="3:12">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
     </row>
     <row r="57" ht="56" customHeight="1" spans="3:12">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
     </row>
     <row r="58" ht="56" customHeight="1" spans="3:12">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
     </row>
     <row r="59" ht="56" customHeight="1" spans="3:12">
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" ht="56" customHeight="1" spans="3:12">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
     </row>
     <row r="61" ht="56" customHeight="1" spans="3:12">
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" ht="56" customHeight="1" spans="3:12">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" ht="56" customHeight="1" spans="3:12">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
     </row>
     <row r="64" ht="56" customHeight="1" spans="3:12">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
     </row>
     <row r="65" ht="56" customHeight="1" spans="3:12">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
     </row>
     <row r="66" ht="56" customHeight="1" spans="3:12">
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
     </row>
     <row r="67" ht="56" customHeight="1" spans="3:12">
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" ht="56" customHeight="1" spans="3:12">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
     </row>
     <row r="69" ht="56" customHeight="1" spans="3:12">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" ht="56" customHeight="1" spans="3:12">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
     </row>
     <row r="71" ht="56" customHeight="1" spans="3:12">
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
     </row>
     <row r="72" ht="56" customHeight="1" spans="3:12">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
     </row>
     <row r="73" ht="56" customHeight="1" spans="3:12">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
     </row>
     <row r="74" ht="56" customHeight="1" spans="3:12">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
     </row>
     <row r="75" ht="56" customHeight="1" spans="3:12">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
     </row>
     <row r="76" ht="56" customHeight="1" spans="3:12">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
     </row>
     <row r="77" ht="56" customHeight="1" spans="3:12">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
     </row>
     <row r="78" ht="56" customHeight="1" spans="3:12">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
     </row>
     <row r="79" ht="56" customHeight="1" spans="3:12">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
     </row>
     <row r="80" ht="56" customHeight="1" spans="3:12">
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
     </row>
     <row r="81" ht="56" customHeight="1" spans="3:12">
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
     </row>
     <row r="82" ht="56" customHeight="1" spans="3:12">
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
     </row>
     <row r="83" ht="56" customHeight="1" spans="3:12">
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
     </row>
     <row r="84" ht="56" customHeight="1" spans="3:12">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
     </row>
     <row r="85" ht="56" customHeight="1" spans="3:12">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
     </row>
     <row r="86" ht="56" customHeight="1" spans="3:12">
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
     </row>
     <row r="87" ht="56" customHeight="1" spans="3:12">
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
     </row>
     <row r="88" ht="56" customHeight="1" spans="3:12">
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
     </row>
     <row r="89" ht="56" customHeight="1" spans="3:12">
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
     </row>
     <row r="90" ht="56" customHeight="1" spans="3:12">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
     </row>
     <row r="91" ht="56" customHeight="1" spans="3:12">
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
     </row>
     <row r="92" ht="56" customHeight="1" spans="3:12">
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
     </row>
     <row r="93" ht="56" customHeight="1" spans="3:12">
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
     </row>
     <row r="94" ht="56" customHeight="1" spans="3:12">
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
     </row>
     <row r="95" ht="56" customHeight="1" spans="3:12">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
     </row>
     <row r="96" ht="56" customHeight="1" spans="3:12">
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
     </row>
     <row r="97" ht="56" customHeight="1" spans="3:12">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
     </row>
     <row r="98" ht="56" customHeight="1" spans="3:12">
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
     </row>
     <row r="99" ht="56" customHeight="1" spans="3:12">
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
     </row>
     <row r="100" ht="56" customHeight="1" spans="3:12">
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
     </row>
     <row r="101" ht="56" customHeight="1" spans="3:12">
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
     </row>
     <row r="102" ht="56" customHeight="1" spans="3:12">
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
     </row>
     <row r="103" ht="56" customHeight="1" spans="3:12">
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="6"/>
-      <c r="L103" s="6"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
     </row>
     <row r="104" ht="56" customHeight="1" spans="3:12">
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
     </row>
     <row r="105" ht="56" customHeight="1" spans="3:12">
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
     </row>
     <row r="106" ht="56" customHeight="1" spans="3:12">
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="318">

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>继续学习hibernate</t>
+  </si>
+  <si>
+    <t>学习hibernate核心配置文件和hibernate基本对象</t>
+  </si>
+  <si>
+    <t>学会使用hibernate对象</t>
+  </si>
+  <si>
+    <t>18:30-21:00</t>
+  </si>
+  <si>
+    <t>学习hibernate实现类操作</t>
+  </si>
+  <si>
+    <t>学会crud操作</t>
+  </si>
+  <si>
+    <t>学习事务</t>
+  </si>
+  <si>
+    <t>了解事务机制</t>
+  </si>
+  <si>
+    <t>尝试给自己的模块加上事务</t>
   </si>
 </sst>
 </file>
@@ -280,10 +304,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -294,9 +318,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,15 +348,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -326,7 +356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,22 +364,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,23 +384,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,8 +408,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,14 +425,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -424,14 +448,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,6 +471,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -459,7 +501,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,19 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,55 +561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,7 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,13 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,13 +615,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,6 +649,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -642,16 +666,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,18 +684,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,30 +709,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,6 +732,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -746,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,133 +782,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1228,8 +1252,8 @@
   <sheetPr/>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1860,43 +1884,82 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" ht="56" customHeight="1" spans="3:12">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+    <row r="27" ht="56" customHeight="1" spans="1:12">
+      <c r="A27" s="3">
+        <v>43244</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" ht="56" customHeight="1" spans="3:12">
-      <c r="C28" s="1"/>
+    <row r="28" ht="56" customHeight="1" spans="1:12">
+      <c r="A28" s="3">
+        <v>43245</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" ht="56" customHeight="1" spans="3:12">
-      <c r="C29" s="1"/>
+    <row r="29" ht="56" customHeight="1" spans="1:12">
+      <c r="A29" s="3">
+        <v>43246</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" ht="56" customHeight="1" spans="3:12">
+    <row r="30" ht="56" customHeight="1" spans="1:12">
+      <c r="A30" s="3">
+        <v>43247</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1908,7 +1971,10 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" ht="56" customHeight="1" spans="3:12">
+    <row r="31" ht="56" customHeight="1" spans="1:12">
+      <c r="A31" s="3">
+        <v>43248</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -297,6 +297,27 @@
   </si>
   <si>
     <t>尝试给自己的模块加上事务</t>
+  </si>
+  <si>
+    <t>14：00-18:00</t>
+  </si>
+  <si>
+    <t>学习hibernate的主键生成策略和一级缓存</t>
+  </si>
+  <si>
+    <t>了解hibernate的一级缓存</t>
+  </si>
+  <si>
+    <t>学习controller,并尝试给自己的模块加上controller</t>
+  </si>
+  <si>
+    <t>学习老师给出的controller例码</t>
+  </si>
+  <si>
+    <t>了解controller</t>
+  </si>
+  <si>
+    <t>尝试自己写出自己模块的controller</t>
   </si>
 </sst>
 </file>
@@ -304,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -319,6 +340,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -326,22 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,7 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +391,69 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,38 +469,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,40 +477,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -471,13 +492,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,55 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +564,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,25 +588,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,19 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,74 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,6 +712,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -762,6 +759,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -770,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,133 +803,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,8 +1273,8 @@
   <sheetPr/>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1960,28 +1981,46 @@
       <c r="A30" s="3">
         <v>43247</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="I30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" ht="56" customHeight="1" spans="1:12">
       <c r="A31" s="3">
         <v>43248</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -318,6 +318,69 @@
   </si>
   <si>
     <t>尝试自己写出自己模块的controller</t>
+  </si>
+  <si>
+    <t>写上自己的controller模块</t>
+  </si>
+  <si>
+    <t>写出controller模块</t>
+  </si>
+  <si>
+    <t>进行修改并解决后续问题</t>
+  </si>
+  <si>
+    <t>修改文件路径和解决controller模块的问题</t>
+  </si>
+  <si>
+    <t>解决完controller模块的问题</t>
+  </si>
+  <si>
+    <t>尝试写出自己模块的js文件</t>
+  </si>
+  <si>
+    <t>完成userinfo.js和app.js</t>
+  </si>
+  <si>
+    <t>继续写出其他js文件</t>
+  </si>
+  <si>
+    <t>完善其他js文件</t>
+  </si>
+  <si>
+    <t>完成其他js文件</t>
+  </si>
+  <si>
+    <t>解决后续能否跑出数据的问题</t>
+  </si>
+  <si>
+    <t>修改代码和运行环境</t>
+  </si>
+  <si>
+    <t>成功跑出数据</t>
+  </si>
+  <si>
+    <t>查看配置文件</t>
+  </si>
+  <si>
+    <t>了解log模块</t>
+  </si>
+  <si>
+    <t>学习和尝试编写log</t>
+  </si>
+  <si>
+    <t>学习js框架</t>
+  </si>
+  <si>
+    <t>学习项目中js例码</t>
+  </si>
+  <si>
+    <t>解决后续问题</t>
+  </si>
+  <si>
+    <t>查找问题，修改代码</t>
+  </si>
+  <si>
+    <t>问题解决，能够跑出结果</t>
   </si>
 </sst>
 </file>
@@ -325,8 +388,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -340,14 +403,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,15 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -376,7 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,8 +461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +471,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,48 +517,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,9 +539,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,13 +555,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,19 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,109 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +627,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,13 +705,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +753,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,11 +773,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,52 +838,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +866,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1273,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2025,23 +2088,45 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" ht="56" customHeight="1" spans="3:12">
-      <c r="C32" s="1"/>
+    <row r="32" ht="56" customHeight="1" spans="1:12">
+      <c r="A32" s="3">
+        <v>43249</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" ht="56" customHeight="1" spans="3:12">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+    <row r="33" ht="56" customHeight="1" spans="1:12">
+      <c r="A33" s="3">
+        <v>43250</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2049,7 +2134,10 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" ht="56" customHeight="1" spans="3:12">
+    <row r="34" ht="56" customHeight="1" spans="1:12">
+      <c r="A34" s="3">
+        <v>43251</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2061,7 +2149,10 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" ht="56" customHeight="1" spans="3:12">
+    <row r="35" ht="56" customHeight="1" spans="1:12">
+      <c r="A35" s="3">
+        <v>43252</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2073,7 +2164,10 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" ht="56" customHeight="1" spans="3:12">
+    <row r="36" ht="56" customHeight="1" spans="1:12">
+      <c r="A36" s="3">
+        <v>43253</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -2085,7 +2179,10 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" ht="56" customHeight="1" spans="3:12">
+    <row r="37" ht="56" customHeight="1" spans="1:12">
+      <c r="A37" s="3">
+        <v>43254</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2097,7 +2194,10 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" ht="56" customHeight="1" spans="3:12">
+    <row r="38" ht="56" customHeight="1" spans="1:12">
+      <c r="A38" s="3">
+        <v>43255</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2109,7 +2209,10 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" ht="56" customHeight="1" spans="3:12">
+    <row r="39" ht="56" customHeight="1" spans="1:12">
+      <c r="A39" s="3">
+        <v>43256</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2121,7 +2224,10 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" ht="56" customHeight="1" spans="3:12">
+    <row r="40" ht="56" customHeight="1" spans="1:12">
+      <c r="A40" s="3">
+        <v>43257</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2133,7 +2239,10 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" ht="56" customHeight="1" spans="3:12">
+    <row r="41" ht="56" customHeight="1" spans="1:12">
+      <c r="A41" s="3">
+        <v>43258</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2145,7 +2254,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" ht="56" customHeight="1" spans="3:12">
+    <row r="42" ht="56" customHeight="1" spans="1:12">
+      <c r="A42" s="3">
+        <v>43259</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2157,47 +2269,93 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" ht="56" customHeight="1" spans="3:12">
-      <c r="C43" s="1"/>
+    <row r="43" ht="56" customHeight="1" spans="1:12">
+      <c r="A43" s="3">
+        <v>43260</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" ht="56" customHeight="1" spans="3:12">
-      <c r="C44" s="1"/>
+    <row r="44" ht="56" customHeight="1" spans="1:12">
+      <c r="A44" s="3">
+        <v>43261</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" ht="56" customHeight="1" spans="3:12">
-      <c r="C45" s="1"/>
+    <row r="45" ht="56" customHeight="1" spans="1:12">
+      <c r="A45" s="3">
+        <v>43262</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" ht="56" customHeight="1" spans="3:12">
-      <c r="C46" s="1"/>
+    <row r="46" ht="56" customHeight="1" spans="1:12">
+      <c r="A46" s="3">
+        <v>43263</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2205,23 +2363,45 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" ht="56" customHeight="1" spans="3:12">
-      <c r="C47" s="1"/>
+    <row r="47" ht="56" customHeight="1" spans="1:12">
+      <c r="A47" s="3">
+        <v>43264</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" ht="56" customHeight="1" spans="3:12">
-      <c r="C48" s="1"/>
+    <row r="48" ht="56" customHeight="1" spans="1:12">
+      <c r="A48" s="3">
+        <v>43265</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -451,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>13:00</t>
     </r>
@@ -594,6 +590,14 @@
   </si>
   <si>
     <t xml:space="preserve">准备代码验收 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置完成并给</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,17 +666,17 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -957,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,22 +980,22 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
@@ -1000,22 +1004,22 @@
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
@@ -1024,22 +1028,22 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -1048,22 +1052,22 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="41.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
@@ -1072,22 +1076,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -1096,20 +1100,20 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -1118,22 +1122,22 @@
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -1142,22 +1146,22 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -1166,20 +1170,20 @@
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -1188,22 +1192,22 @@
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -1212,22 +1216,22 @@
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="48.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -1236,22 +1240,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -1260,22 +1264,22 @@
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1284,22 +1288,22 @@
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -1308,22 +1312,22 @@
       <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -1332,22 +1336,22 @@
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -1356,22 +1360,22 @@
       <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -1380,22 +1384,22 @@
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
@@ -1404,22 +1408,22 @@
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
@@ -1428,22 +1432,22 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -1452,22 +1456,22 @@
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
@@ -1476,22 +1480,22 @@
       <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1500,22 +1504,22 @@
       <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -1524,22 +1528,22 @@
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
@@ -1548,22 +1552,22 @@
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
@@ -1572,22 +1576,22 @@
       <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
@@ -1596,22 +1600,22 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
@@ -1620,22 +1624,22 @@
       <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1644,22 +1648,22 @@
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
@@ -1668,22 +1672,22 @@
       <c r="B30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6" t="s">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
@@ -1692,22 +1696,22 @@
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
@@ -1716,22 +1720,22 @@
       <c r="B32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
@@ -1740,155 +1744,155 @@
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>43251</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>43252</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>43253</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>43254</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>43255</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>43256</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>43257</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>43258</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
     </row>
     <row r="42" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>43259</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
@@ -1897,22 +1901,22 @@
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5" t="s">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
@@ -1921,22 +1925,22 @@
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5" t="s">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
@@ -1945,22 +1949,22 @@
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
@@ -1969,20 +1973,20 @@
       <c r="B46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
@@ -1991,22 +1995,22 @@
       <c r="B47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
@@ -2015,20 +2019,20 @@
       <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
@@ -2037,20 +2041,20 @@
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
@@ -2059,22 +2063,22 @@
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
@@ -2083,22 +2087,22 @@
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
@@ -2107,1033 +2111,729 @@
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>43270</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="7" t="s">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>43271</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>43272</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>43273</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
+      <c r="C56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>43274</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>43275</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>43276</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>43277</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
     </row>
     <row r="76" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
     </row>
     <row r="77" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
     </row>
     <row r="80" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
     </row>
     <row r="81" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
     </row>
     <row r="82" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
     </row>
     <row r="84" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
     </row>
     <row r="85" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
     </row>
     <row r="90" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
     </row>
     <row r="91" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
     </row>
     <row r="92" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
     </row>
     <row r="93" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
     </row>
     <row r="94" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
     </row>
     <row r="95" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
     </row>
     <row r="96" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
     </row>
     <row r="97" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
     </row>
     <row r="98" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
     </row>
     <row r="99" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
     </row>
     <row r="100" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
     </row>
     <row r="101" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
     </row>
     <row r="102" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
     </row>
     <row r="103" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
     </row>
     <row r="104" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
     </row>
     <row r="105" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
     </row>
     <row r="106" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="318">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:L102"/>
     <mergeCell ref="C106:E106"/>
     <mergeCell ref="F106:H106"/>
     <mergeCell ref="I106:L106"/>
@@ -3146,6 +2846,312 @@
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="F105:H105"/>
     <mergeCell ref="I105:L105"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/awm/doc/log/log_201608040127_zoulongkang.xlsx
+++ b/awm/doc/log/log_201608040127_zoulongkang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
   <si>
     <t xml:space="preserve"> 日期</t>
   </si>
@@ -597,7 +597,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>配置完成并给</t>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习JIRA使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习JIRA使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会JIRA简单使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习JIRA的基本使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会使用JIRA基本操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够简单使用JIRA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己模块的代码加上注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给自己模块加注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加完注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,14 +727,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:H56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,16 +1104,16 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1076,11 +1128,11 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1151,11 +1203,11 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
         <v>26</v>
       </c>
@@ -1175,11 +1227,11 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1389,11 +1441,11 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
         <v>58</v>
       </c>
@@ -1432,11 +1484,11 @@
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="7" t="s">
         <v>63</v>
       </c>
@@ -1456,11 +1508,11 @@
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="7" t="s">
         <v>67</v>
       </c>
@@ -1581,11 +1633,11 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="7" t="s">
         <v>85</v>
       </c>
@@ -1600,11 +1652,11 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="7" t="s">
         <v>87</v>
       </c>
@@ -1672,22 +1724,22 @@
       <c r="B30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
@@ -1744,11 +1796,11 @@
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="7" t="s">
         <v>105</v>
       </c>
@@ -2046,7 +2098,7 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="10" t="s">
         <v>135</v>
       </c>
       <c r="G49" s="7"/>
@@ -2063,17 +2115,17 @@
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>141</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="10" t="s">
         <v>143</v>
       </c>
       <c r="J50" s="7"/>
@@ -2087,17 +2139,17 @@
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="10" t="s">
         <v>139</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="10" t="s">
         <v>140</v>
       </c>
       <c r="J51" s="7"/>
@@ -2111,12 +2163,12 @@
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="7"/>
@@ -2133,17 +2185,17 @@
       <c r="B53" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="10" t="s">
         <v>125</v>
       </c>
       <c r="J53" s="7"/>
@@ -2157,17 +2209,17 @@
       <c r="B54" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="10" t="s">
         <v>131</v>
       </c>
       <c r="J54" s="7"/>
@@ -2181,17 +2233,17 @@
       <c r="B55" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10" t="s">
         <v>133</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
-      <c r="I55" s="9" t="s">
+      <c r="I55" s="10" t="s">
         <v>134</v>
       </c>
       <c r="J55" s="7"/>
@@ -2205,17 +2257,19 @@
       <c r="B56" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
+      <c r="I56" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
@@ -2224,13 +2278,22 @@
       <c r="A57" s="3">
         <v>43274</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="B57" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
@@ -2239,13 +2302,22 @@
       <c r="A58" s="3">
         <v>43275</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="B58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
@@ -2254,10 +2326,17 @@
       <c r="A59" s="3">
         <v>43276</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="B59" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>158</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -2268,6 +2347,9 @@
     <row r="60" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>43277</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2281,6 +2363,12 @@
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>43278</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -2293,6 +2381,12 @@
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>43279</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -2305,6 +2399,12 @@
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>43280</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -2317,6 +2417,12 @@
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>43281</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -2328,7 +2434,13 @@
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>43282</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -2340,7 +2452,13 @@
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>43283</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -2352,7 +2470,13 @@
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>43284</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -2364,7 +2488,13 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>43285</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -2376,7 +2506,13 @@
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>43286</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -2388,7 +2524,13 @@
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>43287</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -2400,7 +2542,7 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -2412,7 +2554,7 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -2424,7 +2566,7 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -2436,7 +2578,7 @@
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -2448,7 +2590,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -2460,7 +2602,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -2472,7 +2614,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -2484,7 +2626,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -2496,7 +2638,7 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -2508,7 +2650,7 @@
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="3:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -2834,6 +2976,312 @@
     </row>
   </sheetData>
   <mergeCells count="318">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="F96:H96"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:L102"/>
     <mergeCell ref="C106:E106"/>
     <mergeCell ref="F106:H106"/>
     <mergeCell ref="I106:L106"/>
@@ -2846,312 +3294,6 @@
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="F105:H105"/>
     <mergeCell ref="I105:L105"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="F96:H96"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
